--- a/doc/管脚.xlsx
+++ b/doc/管脚.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\fascia-gun\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF2EFDA-571C-4099-89FA-76C761820596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14CD53-D9DB-4DFA-8779-C696D53ADA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>led1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,42 @@
   </si>
   <si>
     <t>p01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电adc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池adc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6v 充电 8.2v 充满  7.4v 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.06v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.49v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.32v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,8 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,15 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -424,7 +470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -432,7 +478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -440,7 +486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -448,7 +494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -456,7 +502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -464,7 +510,69 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/管脚.xlsx
+++ b/doc/管脚.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\fascia-gun\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14CD53-D9DB-4DFA-8779-C696D53ADA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC9B5AD-3C1F-4A71-B5B3-006330DDB33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>led1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>8.32v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充满检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电高电平 充满低电平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,10 +169,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,7 +457,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -532,12 +544,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14">
@@ -545,7 +568,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15">
@@ -553,7 +576,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16">
@@ -561,13 +584,13 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
